--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.3855726088957</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H2">
-        <v>17.3855726088957</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I2">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906668</v>
       </c>
       <c r="J2">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906667</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N2">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O2">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P2">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q2">
-        <v>69.91772892075926</v>
+        <v>72.55871638866</v>
       </c>
       <c r="R2">
-        <v>69.91772892075926</v>
+        <v>653.0284474979401</v>
       </c>
       <c r="S2">
-        <v>0.718013496237989</v>
+        <v>0.683099089967421</v>
       </c>
       <c r="T2">
-        <v>0.718013496237989</v>
+        <v>0.683099089967421</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.3855726088957</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H3">
-        <v>17.3855726088957</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I3">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906668</v>
       </c>
       <c r="J3">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906667</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N3">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O3">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P3">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q3">
-        <v>11.20154696762471</v>
+        <v>11.59117575276</v>
       </c>
       <c r="R3">
-        <v>11.20154696762471</v>
+        <v>104.32058177484</v>
       </c>
       <c r="S3">
-        <v>0.1150332258448152</v>
+        <v>0.1091243340903459</v>
       </c>
       <c r="T3">
-        <v>0.1150332258448152</v>
+        <v>0.1091243340903459</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.3855726088957</v>
+        <v>17.41499333333334</v>
       </c>
       <c r="H4">
-        <v>17.3855726088957</v>
+        <v>52.24498000000001</v>
       </c>
       <c r="I4">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906668</v>
       </c>
       <c r="J4">
-        <v>0.9754266174779291</v>
+        <v>0.9584726630906667</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N4">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O4">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P4">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q4">
-        <v>13.86447327544774</v>
+        <v>17.65897738993334</v>
       </c>
       <c r="R4">
-        <v>13.86447327544774</v>
+        <v>158.9307965094</v>
       </c>
       <c r="S4">
-        <v>0.1423798953951248</v>
+        <v>0.1662492390328999</v>
       </c>
       <c r="T4">
-        <v>0.1423798953951248</v>
+        <v>0.1662492390328998</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.437985101522309</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H5">
-        <v>0.437985101522309</v>
+        <v>0.490424</v>
       </c>
       <c r="I5">
-        <v>0.02457338252207096</v>
+        <v>0.008997189726622102</v>
       </c>
       <c r="J5">
-        <v>0.02457338252207096</v>
+        <v>0.0089971897266221</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N5">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O5">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P5">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q5">
-        <v>1.761398619905056</v>
+        <v>0.6811091884079999</v>
       </c>
       <c r="R5">
-        <v>1.761398619905056</v>
+        <v>6.129982695672</v>
       </c>
       <c r="S5">
-        <v>0.01808851633010198</v>
+        <v>0.006412256031070976</v>
       </c>
       <c r="T5">
-        <v>0.01808851633010198</v>
+        <v>0.006412256031070974</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -779,49 +785,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.437985101522309</v>
+        <v>0.1634746666666667</v>
       </c>
       <c r="H6">
-        <v>0.437985101522309</v>
+        <v>0.490424</v>
       </c>
       <c r="I6">
-        <v>0.02457338252207096</v>
+        <v>0.008997189726622102</v>
       </c>
       <c r="J6">
-        <v>0.02457338252207096</v>
+        <v>0.0089971897266221</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N6">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O6">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P6">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q6">
-        <v>0.282194368640565</v>
+        <v>0.108806449488</v>
       </c>
       <c r="R6">
-        <v>0.282194368640565</v>
+        <v>0.979258045392</v>
       </c>
       <c r="S6">
-        <v>0.002897968346138948</v>
+        <v>0.001024350902649859</v>
       </c>
       <c r="T6">
-        <v>0.002897968346138948</v>
+        <v>0.001024350902649858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1634746666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.490424</v>
+      </c>
+      <c r="I7">
+        <v>0.008997189726622102</v>
+      </c>
+      <c r="J7">
+        <v>0.0089971897266221</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.01401</v>
+      </c>
+      <c r="N7">
+        <v>3.04203</v>
+      </c>
+      <c r="O7">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="P7">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="Q7">
+        <v>0.1657649467466667</v>
+      </c>
+      <c r="R7">
+        <v>1.49188452072</v>
+      </c>
+      <c r="S7">
+        <v>0.001560582792901268</v>
+      </c>
+      <c r="T7">
+        <v>0.001560582792901267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.08025166666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.240755</v>
+      </c>
+      <c r="I8">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="J8">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.166450999999999</v>
+      </c>
+      <c r="N8">
+        <v>12.499353</v>
+      </c>
+      <c r="O8">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="P8">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="Q8">
+        <v>0.334364636835</v>
+      </c>
+      <c r="R8">
+        <v>3.009281731515</v>
+      </c>
+      <c r="S8">
+        <v>0.003147853083781569</v>
+      </c>
+      <c r="T8">
+        <v>0.003147853083781569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.08025166666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.240755</v>
+      </c>
+      <c r="I9">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="J9">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.996758</v>
+      </c>
+      <c r="O9">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="P9">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="Q9">
+        <v>0.05341438580999999</v>
+      </c>
+      <c r="R9">
+        <v>0.48072947229</v>
+      </c>
+      <c r="S9">
+        <v>0.0005028660945782968</v>
+      </c>
+      <c r="T9">
+        <v>0.0005028660945782968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.437985101522309</v>
-      </c>
-      <c r="H7">
-        <v>0.437985101522309</v>
-      </c>
-      <c r="I7">
-        <v>0.02457338252207096</v>
-      </c>
-      <c r="J7">
-        <v>0.02457338252207096</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.797470039517346</v>
-      </c>
-      <c r="N7">
-        <v>0.797470039517346</v>
-      </c>
-      <c r="O7">
-        <v>0.1459667932409548</v>
-      </c>
-      <c r="P7">
-        <v>0.1459667932409548</v>
-      </c>
-      <c r="Q7">
-        <v>0.3492799962190046</v>
-      </c>
-      <c r="R7">
-        <v>0.3492799962190046</v>
-      </c>
-      <c r="S7">
-        <v>0.003586897845830025</v>
-      </c>
-      <c r="T7">
-        <v>0.003586897845830025</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.08025166666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.240755</v>
+      </c>
+      <c r="I10">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="J10">
+        <v>0.004416827913464479</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.01401</v>
+      </c>
+      <c r="N10">
+        <v>3.04203</v>
+      </c>
+      <c r="O10">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="P10">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="Q10">
+        <v>0.08137599251666668</v>
+      </c>
+      <c r="R10">
+        <v>0.73238393265</v>
+      </c>
+      <c r="S10">
+        <v>0.000766108735104613</v>
+      </c>
+      <c r="T10">
+        <v>0.0007661087351046129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5108056666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.532417</v>
+      </c>
+      <c r="I11">
+        <v>0.02811331926924674</v>
+      </c>
+      <c r="J11">
+        <v>0.02811331926924673</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.166450999999999</v>
+      </c>
+      <c r="N11">
+        <v>12.499353</v>
+      </c>
+      <c r="O11">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="P11">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="Q11">
+        <v>2.128246780689</v>
+      </c>
+      <c r="R11">
+        <v>19.154221026201</v>
+      </c>
+      <c r="S11">
+        <v>0.02003623425926482</v>
+      </c>
+      <c r="T11">
+        <v>0.02003623425926482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5108056666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.532417</v>
+      </c>
+      <c r="I12">
+        <v>0.02811331926924674</v>
+      </c>
+      <c r="J12">
+        <v>0.02811331926924673</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N12">
+        <v>1.996758</v>
+      </c>
+      <c r="O12">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="P12">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="Q12">
+        <v>0.339985100454</v>
+      </c>
+      <c r="R12">
+        <v>3.059865904086</v>
+      </c>
+      <c r="S12">
+        <v>0.003200766555441798</v>
+      </c>
+      <c r="T12">
+        <v>0.003200766555441797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5108056666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.532417</v>
+      </c>
+      <c r="I13">
+        <v>0.02811331926924674</v>
+      </c>
+      <c r="J13">
+        <v>0.02811331926924673</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.01401</v>
+      </c>
+      <c r="N13">
+        <v>3.04203</v>
+      </c>
+      <c r="O13">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="P13">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="Q13">
+        <v>0.5179620540566667</v>
+      </c>
+      <c r="R13">
+        <v>4.66165848651</v>
+      </c>
+      <c r="S13">
+        <v>0.004876318454540117</v>
+      </c>
+      <c r="T13">
+        <v>0.004876318454540116</v>
       </c>
     </row>
   </sheetData>
